--- a/Login/Default.xlsx
+++ b/Login/Default.xlsx
@@ -17,13 +17,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
   <si>
+    <t>lucialves1</t>
+  </si>
+  <si>
     <t>USERNAME</t>
   </si>
   <si>
-    <t>lucialves2</t>
-  </si>
-  <si>
-    <t>lusilva2</t>
+    <t>lusilva1</t>
   </si>
   <si>
     <t>PASSWORD</t>
@@ -203,10 +203,10 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -214,10 +214,10 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -233,14 +233,14 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -569,19 +569,19 @@
     <col min="3" max="16384" width="8.8984375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.95" s="3" customFormat="1">
+    <row r="1" ht="14.95" s="6" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>123456</v>
       </c>
     </row>
@@ -589,7 +589,7 @@
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>123456</v>
       </c>
     </row>
